--- a/2025/10/2025-10-23/23_ai.full_fixtures.xlsx
+++ b/2025/10/2025-10-23/23_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CR Flamengo ✓ - Racing Club: 1:0</t>
+          <t>FC Krasnodar ✓ - FC Sochi: 3:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.59</v>
+        <v>3.56</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CR Flamengo</t>
+          <t>FC Krasnodar</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -527,31 +527,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FC Krasnodar  - FC Sochi: 16:30</t>
+          <t>Al-Najma SC - Al-Ahli SFC ✓: 0:1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.53</v>
+        <v>2.12</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Krasnodar</t>
+          <t>Al-Ahli SFC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -562,28 +566,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk  - Legia Warszawa: 17:45</t>
+          <t>FC Tallinn - FC Nomme United ✓: 1:4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.43</v>
+        <v>3.09</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>FC Nomme United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -597,15 +605,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atlético Nacional ✓ - Once Caldas: 2:0</t>
+          <t>CR Flamengo ✓ - Racing Club: 1:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atlético Nacional</t>
+          <t>CR Flamengo</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -613,7 +621,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -622,7 +630,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -636,31 +644,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Tijuana - Deportivo Toluca : 0:0</t>
+          <t>FC Rànger's  - FC Pas de la Casa: 13:30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.31</v>
+        <v>2.14</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportivo Toluca</t>
+          <t>FC Rànger's</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
+        <v>43</v>
+      </c>
+      <c r="I6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -671,11 +679,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv - FC Midtjylland : 20:00</t>
+          <t>Maccabi Tel Aviv - FC Midtjylland ✓: 0:3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -687,15 +695,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -706,28 +718,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AS Roma  - FC Viktoria Plzen: 20:00</t>
+          <t>Feyenoord Rotterdam ✓ - Panathinaikos FC: 3:1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Feyenoord Rotterdam</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -741,31 +757,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shamrock Rovers - NK Celje : 20:00</t>
+          <t>Atlético Nacional ✓ - Once Caldas: 2:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.33</v>
+        <v>1.75</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Atlético Nacional</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -776,31 +796,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Al-Najma SC - Al-Ahli SFC : 19:00</t>
+          <t>Club Tijuana - Deportivo Toluca : 0:0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.2</v>
+        <v>3.21</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Ahli SFC</t>
+          <t>Deportivo Toluca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -811,15 +831,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Feyenoord Rotterdam  - Panathinaikos FC: 20:00</t>
+          <t>Xorazm Urganch - Pakhtakor Tashkent ✓: 0:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feyenoord Rotterdam</t>
+          <t>Pakhtakor Tashkent</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -827,15 +847,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>54%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -846,31 +870,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AEK Athens  - Aberdeen FC: 17:45</t>
+          <t>Shamrock Rovers - NK Celje ✓: 0:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.13</v>
+        <v>3.28</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -881,15 +909,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Diriangén FC  - Matagalpa FC: 2:2</t>
+          <t>AEK Athens ✓ - Aberdeen FC: 6:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Diriangén FC</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -897,12 +925,16 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>51%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -916,15 +948,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FC Santa Coloma  - Penya Encarnada d'Andorra: 10:00</t>
+          <t>Celtic FC ✓ - SK Sturm Graz: 2:1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Santa Coloma</t>
+          <t>Celtic FC</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -932,15 +964,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -951,15 +987,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Malmö FF - GNK Dinamo Zagreb : 20:00</t>
+          <t>Cong An Ha Noi FC  - Macarthur FC: 1:1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.25</v>
+        <v>2.87</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GNK Dinamo Zagreb</t>
+          <t>Cong An Ha Noi FC</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -967,15 +1003,15 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -986,15 +1022,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crystal Palace  - AEK Larnaca: 20:00</t>
+          <t>Diriangén FC  - Matagalpa FC: 2:2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Diriangén FC</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1002,12 +1038,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1021,15 +1057,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Celtic FC  - SK Sturm Graz: 20:00</t>
+          <t>Shakhtar Donetsk X - Legia Warszawa: 1:2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Celtic FC</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1037,15 +1073,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1056,31 +1096,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Club Deportivo Oriente Petrolero  - Club Jorge Wilstermann: 20:00</t>
+          <t>AZ Alkmaar ✓ - Slovan Bratislava: 1:0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Club Deportivo Oriente Petrolero</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1091,28 +1135,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Defensor Sporting Club  - Montevideo City Torque: 23:30</t>
+          <t>FC Santa Coloma  - Penya Encarnada d'Andorra: 10:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.79</v>
+        <v>2.49</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Defensor Sporting Club</t>
+          <t>FC Santa Coloma</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1126,35 +1170,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sporting San Miguelito - CD Plaza Amador X: 1:0</t>
+          <t>BUL Jinja FC ✓ - Buhimba United Saints FC: 3:0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.57</v>
+        <v>0.96</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CD Plaza Amador</t>
+          <t>BUL Jinja FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1165,31 +1209,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AZ Alkmaar  - Slovan Bratislava: 20:00</t>
+          <t>AS Roma X - FC Viktoria Plzen: 1:2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.2</v>
+        <v>2.11</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1200,15 +1248,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Real CD España  - CSD Xelajú MC: 03:00</t>
+          <t>Club Deportivo Oriente Petrolero ✓ - Club Jorge Wilstermann: 2:0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Real CD España</t>
+          <t>Club Deportivo Oriente Petrolero</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1216,15 +1264,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>36%</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1235,31 +1287,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RC Strasbourg Alsace  - Jagiellonia Bialystok: 17:45</t>
+          <t>Fenerbahce ✓ - VfB Stuttgart: 1:0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.93</v>
+        <v>3.31</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RC Strasbourg Alsace</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>36%</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1270,28 +1326,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LOSC Lille  - PAOK Thessaloniki: 20:00</t>
+          <t>Hvidovre IF ✓ - HB Köge: 3:1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LOSC Lille</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>34%</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1305,28 +1365,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SC Braga  - Red Star Belgrade: 17:45</t>
+          <t>Tartu JK Welco ✓ - Kalju FC U21: 5:2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.58</v>
+        <v>3.41</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SC Braga</t>
+          <t>Tartu JK Welco</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1340,15 +1404,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles - Aston Villa : 17:45</t>
+          <t>PERSIB Bandung ✓ - Selangor FC: 2:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>PERSIB Bandung</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1356,15 +1420,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H26" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1375,15 +1443,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Deportivo Táchira X - Caracas FC: 2:3</t>
+          <t>Defensor Sporting Club  - Montevideo City Torque: 23:30</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.51</v>
+        <v>1.79</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Deportivo Táchira</t>
+          <t>Defensor Sporting Club</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1391,16 +1459,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>28%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -1414,31 +1478,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Club Universidad de Chile  - CA Lanús: 23:00</t>
+          <t>Sporting San Miguelito - CD Plaza Amador X: 1:0</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.78</v>
+        <v>1.57</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Club Universidad de Chile</t>
+          <t>CD Plaza Amador</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1449,15 +1517,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Managua FC - Real Estelí FC X: 2:1</t>
+          <t>Real CD España  - CSD Xelajú MC: 03:00</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.45</v>
+        <v>1.02</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Real Estelí FC</t>
+          <t>Real CD España</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1465,14 +1533,10 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
         <v>3</v>
       </c>
@@ -1488,31 +1552,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FC Drita - Omonia Nicosia : 17:45</t>
+          <t>Jalgpallikool Tammeka U21 - Viimsi JK ✓: 0:4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.37</v>
+        <v>3.93</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Omonia Nicosia</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H30" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1523,32 +1591,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chicago Fire FC ✓ - Orlando City SC: 3:1</t>
+          <t>Malmö FF - GNK Dinamo Zagreb : 1:1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.28</v>
+        <v>2.25</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Chicago Fire FC</t>
+          <t>GNK Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1562,32 +1626,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Querétaro FC - Deportivo Guadalajara X: 1:0</t>
+          <t>SC Braga ✓ - Red Star Belgrade: 2:0</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.28</v>
+        <v>2.48</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Deportivo Guadalajara</t>
+          <t>SC Braga</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1601,31 +1665,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hvidovre IF  - HB Köge: 17:30</t>
+          <t>Baltika Kaliningrad - Lokomotiv Moscow ✓: 1:2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Lokomotiv Moscow</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>24%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1636,15 +1704,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Shkendija Tetovo  - Shelbourne FC: 17:45</t>
+          <t>Al-Fayha FC - Al-Taawoun FC ✓: 1:2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shkendija Tetovo</t>
+          <t>Al-Taawoun FC</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1652,12 +1720,16 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1671,28 +1743,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg  - Ferencvárosi TC: 17:45</t>
+          <t>Deportivo Táchira X - Caracas FC: 2:3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.66</v>
+        <v>1.6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Deportivo Táchira</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1706,15 +1782,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Breidablik Kópavogur - Kuopion Palloseura : 17:45</t>
+          <t>Crystal Palace X - AEK Larnaca: 0:1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kuopion Palloseura</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1722,15 +1798,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1741,28 +1821,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HNK Rijeka - AC Sparta Prague : 17:45</t>
+          <t>BSC Young Boys ✓ - Ludogorets Razgrad: 3:2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AC Sparta Prague</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H37" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1776,28 +1860,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Olympique Lyon  - FC Basel 1893: 17:45</t>
+          <t>Managua FC ✓ - Real Estelí FC: 2:1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.22</v>
+        <v>1.46</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Olympique Lyon</t>
+          <t>Managua FC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1811,31 +1899,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Baltika Kaliningrad - Lokomotiv Moscow : 19:00</t>
+          <t>Chicago Fire FC ✓ - Orlando City SC: 3:1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.38</v>
+        <v>3.31</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lokomotiv Moscow</t>
+          <t>Chicago Fire FC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H39" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1846,15 +1938,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Samsunspor  - Dynamo Kyiv: 20:00</t>
+          <t>Querétaro FC - Deportivo Guadalajara X: 1:0</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.99</v>
+        <v>1.15</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Deportivo Guadalajara</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1862,15 +1954,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1881,31 +1977,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FK Sūduva Marijampolė  - DFK Dainava Alytus: 17:00</t>
+          <t>Olympique Lyon ✓ - FC Basel 1893: 2:0</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.98</v>
+        <v>3.13</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FK Sūduva Marijampolė</t>
+          <t>Olympique Lyon</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H41" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1916,31 +2016,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FC Hegelmann  - FC Džiugas Telšiai: 16:30</t>
+          <t>True Bangkok United ✓ - Lion City Sailors: 1:0</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FC Hegelmann</t>
+          <t>True Bangkok United</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H42" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1951,31 +2055,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nottingham Forest - FC Porto : 20:00</t>
+          <t>RC Strasbourg Alsace  - Jagiellonia Bialystok: 1:1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.35</v>
+        <v>1.89</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>RC Strasbourg Alsace</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1986,28 +2090,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CS Universitatea Craiova  - FC Noah Yerevan: 20:00</t>
+          <t>Club Universidad de Chile  - CA Lanús: 2:2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.98</v>
+        <v>0.78</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CS Universitatea Craiova</t>
+          <t>Club Universidad de Chile</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2021,23 +2125,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kaya FC-Iloilo X - BG Pathum United: 0:2</t>
+          <t>Red Bull Salzburg X - Ferencvárosi TC: 2:3</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.92</v>
+        <v>2.76</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kaya FC-Iloilo</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2046,7 +2150,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2060,31 +2164,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fenerbahce  - VfB Stuttgart: 17:45</t>
+          <t>Bibiani Gold Stars FC ✓ - Berekum Chelsea FC: 1:0</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.4</v>
+        <v>1.31</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Bibiani Gold Stars FC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2095,15 +2203,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ART Municipal Jalapa  - UNAN Managua: 22:00</t>
+          <t>FK Sūduva Marijampolė ✓ - DFK Dainava Alytus: 2:1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ART Municipal Jalapa</t>
+          <t>FK Sūduva Marijampolė</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2111,12 +2219,16 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H47" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -2130,15 +2242,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BSC Young Boys  - Ludogorets Razgrad: 20:00</t>
+          <t>Samsunspor ✓ - Dynamo Kyiv: 3:0</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>BSC Young Boys</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2146,12 +2258,16 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2165,15 +2281,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sacramento Republic FC - Charleston Battery X: 1:0</t>
+          <t>Shkendija Tetovo ✓ - Shelbourne FC: 1:0</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>Shkendija Tetovo</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2181,12 +2297,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2204,15 +2320,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mekele 70 Enderta FC  - Mechal SC: 17:00</t>
+          <t>FC Hegelmann ✓ - FC Džiugas Telšiai: 4:1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mekele 70 Enderta FC</t>
+          <t>FC Hegelmann</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2220,12 +2336,16 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2239,28 +2359,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>KRC Genk  - Real Betis Balompié: 17:45</t>
+          <t>LOSC Lille X - PAOK Thessaloniki: 3:4</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.96</v>
+        <v>2.27</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>LOSC Lille</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H51" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -2274,31 +2398,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.FSV Mainz 05 - HSK Zrinjski Mostar : 20:00</t>
+          <t>CS Universitatea Craiova  - FC Noah Yerevan: 1:1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.24</v>
+        <v>2.93</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HSK Zrinjski Mostar</t>
+          <t>CS Universitatea Craiova</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2309,15 +2433,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BG Tampines Rovers ✓ - Pohang Steelers: 1:0</t>
+          <t>ART Municipal Jalapa ✓ - UNAN Managua: 5:0</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>BG Tampines Rovers</t>
+          <t>ART Municipal Jalapa</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2325,7 +2449,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2334,10 +2458,10 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2348,31 +2472,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pyramids FC  - Ethiopian Insurance Corporation SA: 23:00</t>
+          <t>Go Ahead Eagles - Aston Villa X: 2:1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H54" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2383,15 +2511,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hamrun Spartans - FC Lausanne-Sport : 20:00</t>
+          <t>SK Brann ✓ - Rangers FC: 3:0</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FC Lausanne-Sport</t>
+          <t>SK Brann</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2399,15 +2527,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H55" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2418,31 +2550,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tai Po - Beijing Guoan : 3:3</t>
+          <t>FC Drita - Omonia Nicosia : 1:1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.61</v>
+        <v>2.3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Omonia Nicosia</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2453,31 +2585,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FCI Levadia U21  - FC Elva: 17:00</t>
+          <t>Sacramento Republic FC - Charleston Battery X: 1:0</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.29</v>
+        <v>1.41</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FCI Levadia U21</t>
+          <t>Charleston Battery</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H57" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2488,15 +2624,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SC Freiburg  - FC Utrecht: 20:00</t>
+          <t>Hamrun Spartans - FC Lausanne-Sport ✓: 0:1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SC Freiburg</t>
+          <t>FC Lausanne-Sport</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2504,15 +2640,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H58" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2523,15 +2663,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BK Häcken  - Rayo Vallecano: 17:45</t>
+          <t>Mekele 70 Enderta FC  - Mechal SC: 17:00</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.97</v>
+        <v>1.11</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BK Häcken</t>
+          <t>Mekele 70 Enderta FC</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2539,12 +2679,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -2558,28 +2698,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Express FC - Kampala Capital City Authority FC : 18:00</t>
+          <t>FCSB - Bologna FC 1909 ✓: 1:2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3.09</v>
+        <v>1.65</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Kampala Capital City Authority FC</t>
+          <t>Bologna FC 1909</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H60" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2593,28 +2737,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Universidad O&amp;M FC - Cibao FC : 23:00</t>
+          <t>Kaya FC-Iloilo X - BG Pathum United: 0:2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.84</v>
+        <v>0.88</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cibao FC</t>
+          <t>Kaya FC-Iloilo</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H61" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -2628,32 +2776,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CF Pachuca X - Tigres UANL: 1:2</t>
+          <t>BK Häcken  - Rayo Vallecano: 2:2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CF Pachuca</t>
+          <t>BK Häcken</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2667,31 +2811,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SK Brann  - Rangers FC: 17:45</t>
+          <t>BG Tampines Rovers ✓ - Pohang Steelers: 1:0</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.35</v>
+        <v>1.23</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SK Brann</t>
+          <t>BG Tampines Rovers</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H63" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2702,15 +2850,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps FC  - Lech Poznan: 20:00</t>
+          <t>Breidablik Kópavogur - Kuopion Palloseura : 0:0</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps FC</t>
+          <t>Kuopion Palloseura</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2718,15 +2866,15 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2737,15 +2885,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FCSB  - Bologna FC 1909: 17:45</t>
+          <t>Pyramids FC  - Ethiopian Insurance Corporation SA: 23:00</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2753,12 +2901,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -2772,15 +2920,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Celta de Vigo  - OGC Nice: 20:00</t>
+          <t>Express FC - Kampala Capital City Authority FC ✓: 0:1</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Kampala Capital City Authority FC</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2788,15 +2936,19 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H66" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2807,15 +2959,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NSÍ Runavík II - Víkingur Göta II : 23:00</t>
+          <t>FCI Levadia U21 ✓ - FC Elva: 2:1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2.69</v>
+        <v>2.24</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Víkingur Göta II</t>
+          <t>FCI Levadia U21</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2823,15 +2975,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H67" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2842,15 +2998,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Atlas Guadalajara ✓ - Club León FC: 2:0</t>
+          <t>SC Freiburg ✓ - FC Utrecht: 2:0</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.02</v>
+        <v>2.37</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Atlas Guadalajara</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2858,7 +3014,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2881,31 +3037,35 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SK Sigma Olomouc - Raków Częstochowa : 20:00</t>
+          <t>Celta de Vigo ✓ - OGC Nice: 2:1</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.36</v>
+        <v>2.88</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Raków Częstochowa</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H69" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2916,35 +3076,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>UNAM Pumas X - Atlético de San Luis: 0:1</t>
+          <t>Tai Po - Beijing Guoan : 3:3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.84</v>
+        <v>3.74</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>UNAM Pumas</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2955,15 +3111,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wolwalo Adigrat University FC - Fasil Kenema SC : 14:00</t>
+          <t>1.FSV Mainz 05 - HSK Zrinjski Mostar X: 1:0</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Fasil Kenema SC</t>
+          <t>HSK Zrinjski Mostar</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2971,15 +3127,19 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H71" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2990,28 +3150,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B36 Tórshavn II - EB/Streymur II : 23:00</t>
+          <t>CF Pachuca X - Tigres UANL: 1:2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>EB/Streymur II</t>
+          <t>CF Pachuca</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H72" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -3025,30 +3189,482 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rapid Vienna - ACF Fiorentina : 17:45</t>
+          <t>KRC Genk  - Real Betis Balompié: 0:0</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.23</v>
+        <v>1.86</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ACF Fiorentina</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nottingham Forest - FC Porto X: 2:0</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps FC - Lech Poznan X: 2:1</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Al-Riyadh SC - Al-Kholood Club X: 1:0</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Al-Kholood Club</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Kalev Tallinn U21 - FC Flora Tallinn U21 ✓: 1:4</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FC Flora Tallinn U21</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>FC Buxoro ✓ - Sogdiana Jizzakh: 2:0</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FC Buxoro</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NSÍ Runavík II - Víkingur Göta II : 23:00</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Víkingur Göta II</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>23</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Atlas Guadalajara ✓ - Club León FC: 2:0</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Atlas Guadalajara</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UNAM Pumas X - Atlético de San Luis: 0:1</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>UNAM Pumas</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SK Sigma Olomouc  - Raków Częstochowa: 1:1</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SK Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Rapid Vienna - ACF Fiorentina ✓: 0:3</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ACF Fiorentina</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Wolwalo Adigrat University FC - Fasil Kenema SC : 14:00</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Fasil Kenema SC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>14</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B36 Tórshavn II - EB/Streymur II : 23:00</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>EB/Streymur II</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>23</v>
+      </c>
+      <c r="I85" t="b">
         <v>0</v>
       </c>
     </row>
